--- a/xlsx/ISO 3166-2-US_intext.xlsx
+++ b/xlsx/ISO 3166-2-US_intext.xlsx
@@ -29,31 +29,31 @@
     <t>ISO 3166-2</t>
   </si>
   <si>
-    <t>政策_政策_美國_ISO 3166-2-US</t>
+    <t>政策_政策_美国_ISO 3166-2-US</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際標準化組織</t>
+    <t>国际标准化组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>美國本土外小島嶼</t>
+    <t>美国本土外小岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份郵政縮寫列表</t>
+    <t>美国州份邮政缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A3%E6%8E%A5%E8%99%9F</t>
   </si>
   <si>
-    <t>連接號</t>
+    <t>连接号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬里亞納群島</t>
+    <t>北马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166</t>
@@ -1295,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E6%9C%9F%E5%88%8A%E8%99%9F</t>
   </si>
   <si>
-    <t>國際標準期刊號</t>
+    <t>国际标准期刊号</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO_3307</t>
@@ -1385,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%AD%89%E5%88%B8%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際證券識別碼</t>
+    <t>国际证券识别码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO_6344</t>
@@ -1451,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/Pascal_(%E7%A8%8B%E5%BC%8F%E8%AA%9E%E8%A8%80)</t>
   </si>
   <si>
-    <t>Pascal (程式語言)</t>
+    <t>Pascal (程式语言)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO_7200</t>
@@ -1691,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9E%8B%E7%A2%BC</t>
   </si>
   <si>
-    <t>鞋碼</t>
+    <t>鞋码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Manufacturing_Message_Specification</t>
@@ -1871,7 +1871,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E8%B3%87%E8%A8%8A%E4%BA%A4%E6%8F%9B%E6%A8%99%E6%BA%96%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>亞美尼亞資訊交換標準代碼</t>
+    <t>亚美尼亚资讯交换标准代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%97%B4%E7%B3%BB%E7%BB%9F%E5%88%B0%E4%B8%AD%E9%97%B4%E7%B3%BB%E7%BB%9F</t>
@@ -1889,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%8A%B1%E8%9E%BA%E7%B5%B2</t>
   </si>
   <si>
-    <t>梅花螺絲</t>
+    <t>梅花螺丝</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/RM-ODP</t>
@@ -1973,7 +1973,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E5%99%A8%E5%8D%80%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>控制器區域網路</t>
+    <t>控制器区域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_11940</t>
@@ -2123,7 +2123,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8A%9B</t>
   </si>
   <si>
-    <t>馬力</t>
+    <t>马力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO/IEC_14443</t>
@@ -2201,7 +2201,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>軟體維護</t>
+    <t>软体维护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C%2B%2B</t>
@@ -2441,7 +2441,7 @@
     <t>https://zh.wikipedia.org/wiki/QR%E7%A2%BC</t>
   </si>
   <si>
-    <t>QR碼</t>
+    <t>QR码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO/IEC_18014</t>
@@ -2687,7 +2687,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E5%BD%99%E6%A8%99%E7%A4%BA%E6%A1%86%E6%9E%B6</t>
   </si>
   <si>
-    <t>詞彙標示框架</t>
+    <t>词汇标示框架</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO-TimeML</t>
@@ -2765,7 +2765,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ISO/PAS_28000</t>
